--- a/ehcore/src/main/resources/excels/pmtask.xlsx
+++ b/ehcore/src/main/resources/excels/pmtask.xlsx
@@ -466,15 +466,16 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="28.375" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>

--- a/ehcore/src/main/resources/excels/pmtask.xlsx
+++ b/ehcore/src/main/resources/excels/pmtask.xlsx
@@ -472,7 +472,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>

--- a/ehcore/src/main/resources/excels/pmtask.xlsx
+++ b/ehcore/src/main/resources/excels/pmtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>客户接待登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>物业服务中心主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -539,6 +543,9 @@
       <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1"/>
@@ -550,6 +557,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
@@ -565,6 +573,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ehcore/src/main/resources/excels/pmtask.xlsx
+++ b/ehcore/src/main/resources/excels/pmtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>客户接待登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>服务评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -167,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K6"/>
+  <dimension ref="B1:O6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -485,7 +504,7 @@
     <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75">
+    <row r="1" spans="2:15" ht="18.75">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +518,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:15">
       <c r="E2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -515,7 +534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:15">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -546,8 +565,20 @@
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -558,8 +589,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>15</v>
       </c>
